--- a/docs/v2/exports/RSCG.xlsx
+++ b/docs/v2/exports/RSCG.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RSCG" sheetId="1" r:id="R64998f90e5ca41ca"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RSCG" sheetId="1" r:id="Rd5056f8330af4883"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/docs/v2/exports/RSCG.xlsx
+++ b/docs/v2/exports/RSCG.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RSCG" sheetId="1" r:id="R5ddc4beaf6a64e60"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RSCG" sheetId="1" r:id="R8919f9efb13f4549"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/docs/v2/exports/RSCG.xlsx
+++ b/docs/v2/exports/RSCG.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RSCG" sheetId="1" r:id="R72b03eedb5914cc4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RSCG" sheetId="1" r:id="R74490f4f76fd4f42"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/docs/v2/exports/RSCG.xlsx
+++ b/docs/v2/exports/RSCG.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RSCG" sheetId="1" r:id="R516d9336e0094096"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RSCG" sheetId="1" r:id="R4c73c27541a84336"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/docs/v2/exports/RSCG.xlsx
+++ b/docs/v2/exports/RSCG.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RSCG" sheetId="1" r:id="R6282336ff6b44b24"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RSCG" sheetId="1" r:id="Re51bc0d4e6cb4965"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/docs/v2/exports/RSCG.xlsx
+++ b/docs/v2/exports/RSCG.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RSCG" sheetId="1" r:id="R9595f13a60544328"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RSCG" sheetId="1" r:id="Rc7188905b2524842"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/docs/v2/exports/RSCG.xlsx
+++ b/docs/v2/exports/RSCG.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RSCG" sheetId="1" r:id="Rc7188905b2524842"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RSCG" sheetId="1" r:id="Re65502edd0af4ce3"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/docs/v2/exports/RSCG.xlsx
+++ b/docs/v2/exports/RSCG.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RSCG" sheetId="1" r:id="Rdab95ec8a07745f8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RSCG" sheetId="1" r:id="Ra59febc62bc44b3f"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -4007,7 +4007,7 @@
       </x:c>
       <x:c r="C" s="4" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">https://www.nuget.org/packages/Feast.CodeAnalysis/</x:t>
+          <x:t xml:space="preserve">https://www.nuget.org/packages/Feast.CodeAnalysis.Literal/</x:t>
         </x:is>
       </x:c>
       <x:c r="D" s="4" t="inlineStr">

--- a/docs/v2/exports/RSCG.xlsx
+++ b/docs/v2/exports/RSCG.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RSCG" sheetId="1" r:id="R9ebdc9527af8449c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RSCG" sheetId="1" r:id="Rdf164b148f544519"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/docs/v2/exports/RSCG.xlsx
+++ b/docs/v2/exports/RSCG.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RSCG" sheetId="1" r:id="Rdf164b148f544519"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RSCG" sheetId="1" r:id="R2fec110d948a4beb"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/docs/v2/exports/RSCG.xlsx
+++ b/docs/v2/exports/RSCG.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RSCG" sheetId="1" r:id="R2fec110d948a4beb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RSCG" sheetId="1" r:id="R3916fc56d81042df"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/docs/v2/exports/RSCG.xlsx
+++ b/docs/v2/exports/RSCG.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RSCG" sheetId="1" r:id="R3916fc56d81042df"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RSCG" sheetId="1" r:id="R680dafa3c05647a9"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/docs/v2/exports/RSCG.xlsx
+++ b/docs/v2/exports/RSCG.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RSCG" sheetId="1" r:id="R680dafa3c05647a9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RSCG" sheetId="1" r:id="R4f54634821b94f22"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/docs/v2/exports/RSCG.xlsx
+++ b/docs/v2/exports/RSCG.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RSCG" sheetId="1" r:id="Rb608b4ef17574f8f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RSCG" sheetId="1" r:id="Redb1d9b9a7cd43f7"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/docs/v2/exports/RSCG.xlsx
+++ b/docs/v2/exports/RSCG.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RSCG" sheetId="1" r:id="Redb1d9b9a7cd43f7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RSCG" sheetId="1" r:id="R50a61ebb485a4d95"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/docs/v2/exports/RSCG.xlsx
+++ b/docs/v2/exports/RSCG.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RSCG" sheetId="1" r:id="Rd5f9724567554901"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RSCG" sheetId="1" r:id="R44d609b4c2d647e9"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -4438,7 +4438,7 @@
       </x:c>
       <x:c r="F" s="4" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">2024-04-20T00:00:00</x:t>
+          <x:t xml:space="preserve">2024-04-16T00:00:00</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -4470,7 +4470,7 @@
       </x:c>
       <x:c r="F" s="4" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">2024-04-16T00:00:00</x:t>
+          <x:t xml:space="preserve">2024-04-17T00:00:00</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -4502,7 +4502,7 @@
       </x:c>
       <x:c r="F" s="4" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">2024-04-17T00:00:00</x:t>
+          <x:t xml:space="preserve">2024-04-18T00:00:00</x:t>
         </x:is>
       </x:c>
     </x:row>
